--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/570 new karma or zodiac wizard 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/570 new karma or zodiac wizard 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30C7861-F353-F04B-BC33-294EE6823BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FFB8D9-DB2D-F248-B221-1F41D5FDA7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{9BEBA1C3-FEA3-C34F-BA4F-7779E417906B}"/>
   </bookViews>
@@ -630,8 +630,8 @@
   <dimension ref="E1:F141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E86" sqref="E86"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/570 new karma or zodiac wizard 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/570 new karma or zodiac wizard 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FFB8D9-DB2D-F248-B221-1F41D5FDA7D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E6B8D1-8DA2-AD43-8E33-0DC2B6366C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{9BEBA1C3-FEA3-C34F-BA4F-7779E417906B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
   <si>
     <t>wizardsessioninstance</t>
   </si>
@@ -219,13 +219,169 @@
   </si>
   <si>
     <t>please just answer and do not change any of our code right now. we are still in planning phase. We must discuss . Please provde suggested db table and field names etc also</t>
+  </si>
+  <si>
+    <t>pageslug</t>
+  </si>
+  <si>
+    <t>pageurl</t>
+  </si>
+  <si>
+    <t>seasons-and-pests</t>
+  </si>
+  <si>
+    <t>https://5nezl.ksit.me/seasons-and-pests</t>
+  </si>
+  <si>
+    <t>EMPTY</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>about</t>
+  </si>
+  <si>
+    <t>https://sitetrain.net/about</t>
+  </si>
+  <si>
+    <t>spamzilla-review</t>
+  </si>
+  <si>
+    <t>https://sitetrain.net/spamzilla-review</t>
+  </si>
+  <si>
+    <t>https://5nezl.ksit.me/about</t>
+  </si>
+  <si>
+    <t>contact-2</t>
+  </si>
+  <si>
+    <t>https://5nezl.ksit.me/contact-2</t>
+  </si>
+  <si>
+    <t>way-old-home-with-other-elementor-wid</t>
+  </si>
+  <si>
+    <t>https://rmr1.ksit.me/way-old-home-with-other-elementor-widgets-2</t>
+  </si>
+  <si>
+    <t>pricing_smart</t>
+  </si>
+  <si>
+    <t>https://sitetrain.net/pricing_smart</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>https://rmr1.ksit.me/services</t>
+  </si>
+  <si>
+    <t>contact</t>
+  </si>
+  <si>
+    <t>https://rmr1.ksit.me/contact</t>
+  </si>
+  <si>
+    <t>privacy-policy</t>
+  </si>
+  <si>
+    <t>https://rmr1.ksit.me/privacy-policy</t>
+  </si>
+  <si>
+    <t>homepage-3</t>
+  </si>
+  <si>
+    <t>https://sitetrain.net/homepage-3</t>
+  </si>
+  <si>
+    <t>common-pest-issues-tuscaloosa</t>
+  </si>
+  <si>
+    <t>https://5nezl.ksit.me/common-pest-issues-tuscaloosa</t>
+  </si>
+  <si>
+    <t>https://5nezl.ksit.me/privacy-policy</t>
+  </si>
+  <si>
+    <t>home313-2-2</t>
+  </si>
+  <si>
+    <t>https://sitetrain.net/home313-2-2</t>
+  </si>
+  <si>
+    <t>clone1</t>
+  </si>
+  <si>
+    <t>https://sitetrain.net/clone1</t>
+  </si>
+  <si>
+    <t>home313-2-3</t>
+  </si>
+  <si>
+    <t>https://sitetrain.net/home313-2-3</t>
+  </si>
+  <si>
+    <t>g_post_id</t>
+  </si>
+  <si>
+    <t>fields to use for matching</t>
+  </si>
+  <si>
+    <t>https://flintpestcontrol.net/wp-admin/post.php?post=826&amp;action=edit</t>
+  </si>
+  <si>
+    <t>https://flintpestcontrol.net/wp-admin/post.php?post=826&amp;action=elementor</t>
+  </si>
+  <si>
+    <t>https://flintpestcontrol.net/bed-bugs-control/</t>
+  </si>
+  <si>
+    <t>https://airductcharleston.com/bed-bugs-control/</t>
+  </si>
+  <si>
+    <t>https://airductcharleston.com/wp-admin/post.php?post=826&amp;action=edit</t>
+  </si>
+  <si>
+    <t>https://airductcharleston.com/wp-admin/post.php?post=826&amp;action=elementor</t>
+  </si>
+  <si>
+    <t>found from gcon_pieces.pageslug   (corresponds to wp_posts.post_name)</t>
+  </si>
+  <si>
+    <t>other key exploratory areas</t>
+  </si>
+  <si>
+    <t>/sitejar4 chepno functions inside popup</t>
+  </si>
+  <si>
+    <t>please add a new piece of bold label text below the enter_url box that says:</t>
+  </si>
+  <si>
+    <t>found from wp post id:   gcon_pieces.g_post_id (corresponds to wp_posts.post_id)</t>
+  </si>
+  <si>
+    <t>then have a text input box which says "None found" by default</t>
+  </si>
+  <si>
+    <t>then please add a new piece of bold label text below that that says:</t>
+  </si>
+  <si>
+    <t>pleaes now create the matching function called:</t>
+  </si>
+  <si>
+    <t>SilverFunctionDetectGconRowFromURLsPaste</t>
+  </si>
+  <si>
+    <t>this will be in the backend and allow user to:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -241,6 +397,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="12"/>
       <color theme="0"/>
@@ -248,7 +412,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +437,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -283,18 +453,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -308,6 +482,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>197288</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08C1BFB0-7FDB-E79C-FA1F-C062C360EC95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8331200" y="1219200"/>
+          <a:ext cx="7772400" cy="6293288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -627,17 +850,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E452A4-E64D-A94C-9EBB-2254AE18B0D9}">
-  <dimension ref="E1:F141"/>
+  <dimension ref="D1:F268"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E264" sqref="E264"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" customWidth="1"/>
+    <col min="6" max="6" width="51.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
@@ -980,7 +1204,384 @@
         <v>3</v>
       </c>
     </row>
+    <row r="148" spans="5:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="149" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="152" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E152" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="153" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E153" t="s">
+        <v>63</v>
+      </c>
+      <c r="F153" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="154" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E154" t="s">
+        <v>65</v>
+      </c>
+      <c r="F154" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="155" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E155" t="s">
+        <v>67</v>
+      </c>
+      <c r="F155" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="156" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E156" t="s">
+        <v>69</v>
+      </c>
+      <c r="F156" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="157" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E157" t="s">
+        <v>67</v>
+      </c>
+      <c r="F157" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="158" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E158" t="s">
+        <v>72</v>
+      </c>
+      <c r="F158" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E159" t="s">
+        <v>74</v>
+      </c>
+      <c r="F159" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E160" t="s">
+        <v>76</v>
+      </c>
+      <c r="F160" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E161" t="s">
+        <v>78</v>
+      </c>
+      <c r="F161" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E162" t="s">
+        <v>80</v>
+      </c>
+      <c r="F162" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E163" t="s">
+        <v>82</v>
+      </c>
+      <c r="F163" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="164" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E164" t="s">
+        <v>84</v>
+      </c>
+      <c r="F164" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E165" t="s">
+        <v>86</v>
+      </c>
+      <c r="F165" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E166" t="s">
+        <v>65</v>
+      </c>
+      <c r="F166" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E167" t="s">
+        <v>82</v>
+      </c>
+      <c r="F167" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="168" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E168" t="s">
+        <v>89</v>
+      </c>
+      <c r="F168" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E169" t="s">
+        <v>91</v>
+      </c>
+      <c r="F169" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="170" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E170" t="s">
+        <v>93</v>
+      </c>
+      <c r="F170" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="175" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="180" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E180" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="183" spans="5:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="184" spans="5:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="188" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E188" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E191" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E192" t="s">
+        <v>63</v>
+      </c>
+      <c r="F192" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E193" t="s">
+        <v>65</v>
+      </c>
+      <c r="F193" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E194" t="s">
+        <v>67</v>
+      </c>
+      <c r="F194" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E195" t="s">
+        <v>69</v>
+      </c>
+      <c r="F195" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E196" t="s">
+        <v>67</v>
+      </c>
+      <c r="F196" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E197" t="s">
+        <v>72</v>
+      </c>
+      <c r="F197" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="202" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E202" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="208" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E208" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="209" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E209" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="210" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E210" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="213" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E213" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="214" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E214" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="215" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E215" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="219" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E219" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="220" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E220" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="221" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E221" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="229" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E229" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="230" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+    </row>
+    <row r="232" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E232" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="233" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E233" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="234" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E234" s="2"/>
+    </row>
+    <row r="235" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E235" s="2"/>
+    </row>
+    <row r="236" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E236" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="238" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
+    </row>
+    <row r="239" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E239" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="240" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E240" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="242" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+    </row>
+    <row r="244" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E244" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="248" spans="4:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="249" spans="4:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E249" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="252" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E252" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="255" spans="4:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="256" spans="4:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="260" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E260" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="261" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E261" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="263" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E263" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="266" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E266" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="267" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E267" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="268" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E268" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E208" r:id="rId1" xr:uid="{B710BFD5-64BE-DD47-9FFD-39CDB80757F6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/570 new karma or zodiac wizard 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/570 new karma or zodiac wizard 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E6B8D1-8DA2-AD43-8E33-0DC2B6366C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5789D906-FF88-4941-9D1D-407B5904E75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{9BEBA1C3-FEA3-C34F-BA4F-7779E417906B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="124">
   <si>
     <t>wizardsessioninstance</t>
   </si>
@@ -371,10 +371,43 @@
     <t>pleaes now create the matching function called:</t>
   </si>
   <si>
-    <t>SilverFunctionDetectGconRowFromURLsPaste</t>
-  </si>
-  <si>
     <t>this will be in the backend and allow user to:</t>
+  </si>
+  <si>
+    <t>SilverFunctionDetectGconRowFromRawURLs</t>
+  </si>
+  <si>
+    <t>paste any url like this in the enter_url box:</t>
+  </si>
+  <si>
+    <t>our function will:</t>
+  </si>
+  <si>
+    <t>find the post id like "826"</t>
+  </si>
+  <si>
+    <t>or find the url like:</t>
+  </si>
+  <si>
+    <t>/bed-bugs-control/</t>
+  </si>
+  <si>
+    <t>it will then look in db table gcon_pieces (only looking in db rows that matche the currently logged in user to the fk_user… id field in the gcon_pieces db table)</t>
+  </si>
+  <si>
+    <t>and it will look for matches between these 2 things and the db column of:</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>then it will show in the other 2 boxes any matches it finds in format like this:</t>
+  </si>
+  <si>
+    <t>(g_post_id) - (pageslug) - (pageurl) - (meta_title)</t>
+  </si>
+  <si>
+    <t>so it will display this data badge composed of multiple db columns from the matching gcon_pieces row</t>
   </si>
 </sst>
 </file>
@@ -850,11 +883,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97E452A4-E64D-A94C-9EBB-2254AE18B0D9}">
-  <dimension ref="D1:F268"/>
+  <dimension ref="D1:F295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A248" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E264" sqref="E264"/>
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E299" sqref="E299"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1534,17 +1567,6 @@
         <v>62</v>
       </c>
     </row>
-    <row r="248" spans="4:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="249" spans="4:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="E249" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="252" spans="4:6" x14ac:dyDescent="0.2">
-      <c r="E252" t="s">
-        <v>105</v>
-      </c>
-    </row>
     <row r="255" spans="4:6" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="256" spans="4:6" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="260" spans="5:5" x14ac:dyDescent="0.2">
@@ -1554,12 +1576,17 @@
     </row>
     <row r="261" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E261" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="263" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E263" t="s">
-        <v>112</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="264" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E264" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="266" spans="5:5" x14ac:dyDescent="0.2">
@@ -1575,6 +1602,77 @@
     <row r="268" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E268" t="s">
         <v>102</v>
+      </c>
+    </row>
+    <row r="270" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E270" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="271" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E271" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="272" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E272" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="273" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E273" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="275" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E275" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="277" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E277" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="278" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E278" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="279" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E279" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="280" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E280" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="282" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E282" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="283" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E283" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="285" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E285" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="291" spans="5:5" s="5" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="292" spans="5:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E292" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="295" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E295" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/570 new karma or zodiac wizard 1.xlsx
+++ b/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/570 new karma or zodiac wizard 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kylecampbell/Documents/repos/localrepo-snefuru4/FileGunBasin/9 August-04 StormBasin/570 new karma or zodiac wizard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5789D906-FF88-4941-9D1D-407B5904E75D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4793EAD-73CB-964A-948B-DEFFD76C105A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{9BEBA1C3-FEA3-C34F-BA4F-7779E417906B}"/>
   </bookViews>
@@ -886,8 +886,8 @@
   <dimension ref="D1:F295"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="E299" sqref="E299"/>
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
